--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_30.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,274 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:00:06.415079', '0:00:16.608639')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3904761904761905</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0572717806317251</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[('0:00:29.160000', '0:00:42.540000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.060000', '0:00:06.451609')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -753,450 +764,418 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_208</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:00:11.500000', '0:00:28.960000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:02:08.760000', '0:02:14')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05499181669394435</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.44, 24.06)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1152482269503546</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'B'], ['D', 'E', 'A'], ['A', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'E'], ['G', 'A', 'D'], ['D', 'D/b7', 'G/3']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(59.809365, 65.103514), (52.750498, 59.809365), (3.101913, 7.276092)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.724557, 18.483106), (29.965374, 34.307505), (32.879478, 37.291269)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
